--- a/ig/ch-epreg/StructureDefinition-ch-epreg-organization-thcp.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-organization-thcp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -373,7 +373,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1580,7 +1580,7 @@
     <t>streetName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-streetName|5.2.0}
+    <t xml:space="preserve">Extension {iso21090-ADXP-streetName|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -1602,7 +1602,7 @@
     <t>houseNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-houseNumber|5.2.0}
+    <t xml:space="preserve">Extension {iso21090-ADXP-houseNumber|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -1624,7 +1624,7 @@
     <t>unitID</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-unitID|5.2.0}
+    <t xml:space="preserve">Extension {iso21090-ADXP-unitID|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -1673,7 +1673,7 @@
     <t>postOfficeBoxNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-postBox|5.2.0}
+    <t xml:space="preserve">Extension {iso21090-ADXP-postBox|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -1898,7 +1898,7 @@
     <t>countrycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {iso21090-SC-coding|5.2.0}
+    <t xml:space="preserve">Extension {iso21090-codedString|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -1945,7 +1945,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -2021,7 +2021,7 @@
     <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
   </si>
   <si>
     <t>./type</t>
@@ -2092,7 +2092,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -4532,7 +4532,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>205</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>233</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>346</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>398</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>441</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>82</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>141</v>
@@ -14066,7 +14066,7 @@
         <v>82</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>141</v>
@@ -14186,7 +14186,7 @@
         <v>82</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>141</v>
@@ -15018,7 +15018,7 @@
         <v>82</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>141</v>
@@ -15160,7 +15160,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>539</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>578</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>589</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>82</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>606</v>
@@ -18022,12 +18022,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP130">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
